--- a/Color Doppler Ultrasound/Graphs.xlsx
+++ b/Color Doppler Ultrasound/Graphs.xlsx
@@ -5,16 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Client Task\Dr. Munir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Client Task\Color Doppler Ultrasound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B821A8-51D2-4984-A780-531879911B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C48CF8-3876-449D-9BBD-21862757ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Age (in years)</t>
   </si>
@@ -68,15 +72,52 @@
   <si>
     <t>Surgery</t>
   </si>
+  <si>
+    <t>Abscess</t>
+  </si>
+  <si>
+    <t>acute epididymo-orchitis</t>
+  </si>
+  <si>
+    <t>GCT-seminoma</t>
+  </si>
+  <si>
+    <t>GCT-yolk sac tumor</t>
+  </si>
+  <si>
+    <t>immature teratoma</t>
+  </si>
+  <si>
+    <t>mature teratoma</t>
+  </si>
+  <si>
+    <t>mixed GCT</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>NSGCT-embryonal ca</t>
+  </si>
+  <si>
+    <t>sex cord stromal tumor</t>
+  </si>
+  <si>
+    <t>TB orchitis</t>
+  </si>
+  <si>
+    <t>testicular torsion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +131,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -188,11 +244,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="61"/>
+      </left>
+      <right style="thin">
+        <color indexed="61"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="61"/>
+      </left>
+      <right style="thin">
+        <color indexed="61"/>
+      </right>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,31 +312,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{F323CFD0-6DBA-452E-BBDD-E837B20E0F6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1678,6 +1801,480 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$2:$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>GCT-seminoma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mixed GCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NHL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Abscess</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GCT-yolk sac tumor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mature teratoma</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>immature teratoma</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NSGCT-embryonal ca</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sex cord stromal tumor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TB orchitis</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>acute epididymo-orchitis</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>testicular torsion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>###0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-058B-41B4-9E95-FBEA0BFD8A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571576720"/>
+        <c:axId val="571578160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="571576720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Histopathological Findings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571578160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571578160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="###0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571576720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -1795,6 +2392,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2842,6 +3479,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3449,6 +4589,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C98DB4-2369-4EAA-417E-98F6999E86B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3720,10 +4896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3731,40 +4907,147 @@
     <col min="2" max="2" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>40</v>
       </c>
+      <c r="K2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="14">
+        <v>36</v>
+      </c>
+      <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>38</v>
       </c>
+      <c r="K3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="16">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>22</v>
       </c>
+      <c r="K4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="16">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="16">
+        <v>8</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="16">
+        <v>6</v>
+      </c>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="16">
+        <v>6</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="16">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="K9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="16">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="K10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="16">
+        <v>4</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="16">
+        <v>4</v>
+      </c>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+      <c r="K12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="16">
+        <v>2</v>
+      </c>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="16">
+        <v>2</v>
+      </c>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -3848,4 +5131,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A81F301-80D9-4FF7-A66F-A8D1C9466016}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{1A81F301-80D9-4FF7-A66F-A8D1C9466016}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Color Doppler Ultrasound/Graphs.xlsx
+++ b/Color Doppler Ultrasound/Graphs.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchProject\Client Task\Color Doppler Ultrasound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C48CF8-3876-449D-9BBD-21862757ECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F1209-2ACA-4112-A531-B069B1414B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,18 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
   <si>
     <t>Age (in years)</t>
   </si>
   <si>
-    <t>≤30</t>
-  </si>
-  <si>
     <t>31-40</t>
-  </si>
-  <si>
-    <t>&gt;40</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -108,16 +103,137 @@
   <si>
     <t>testicular torsion</t>
   </si>
+  <si>
+    <t>Color Doppler Ultrasound diagnosis</t>
+  </si>
+  <si>
+    <t>Benign</t>
+  </si>
+  <si>
+    <t>Malignant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histopathological diagnosis </t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>21-30</t>
+  </si>
+  <si>
+    <t>41-50</t>
+  </si>
+  <si>
+    <t>51-60</t>
+  </si>
+  <si>
+    <t>61-72</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>Gray scale findings of testicular lesion</t>
+  </si>
+  <si>
+    <t>Type of the lesion</t>
+  </si>
+  <si>
+    <t>Focal</t>
+  </si>
+  <si>
+    <t>Diffuse</t>
+  </si>
+  <si>
+    <t>Size of the lesion</t>
+  </si>
+  <si>
+    <t>≤1.5 cm</t>
+  </si>
+  <si>
+    <t>&gt;1.5 cm</t>
+  </si>
+  <si>
+    <t>Echogenicity of the lesion</t>
+  </si>
+  <si>
+    <t>Homogeneously hypoechoic</t>
+  </si>
+  <si>
+    <t>Mixed echogenic heterogenous</t>
+  </si>
+  <si>
+    <t>Margin of lesion</t>
+  </si>
+  <si>
+    <t>Well defined</t>
+  </si>
+  <si>
+    <t>Poorly defined</t>
+  </si>
+  <si>
+    <t>Grades of vascularity</t>
+  </si>
+  <si>
+    <t>Grade 1</t>
+  </si>
+  <si>
+    <t>Grade 2</t>
+  </si>
+  <si>
+    <t>Grade 3</t>
+  </si>
+  <si>
+    <t>Pattern of vascularity</t>
+  </si>
+  <si>
+    <t>Regular (branching linear)</t>
+  </si>
+  <si>
+    <t>Non-branching linear</t>
+  </si>
+  <si>
+    <t>Irregular chaotic / criss-cross</t>
+  </si>
+  <si>
+    <t>PSV (Peak systolic velocity)</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Increased</t>
+  </si>
+  <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>EDV (End diastolic velocity)</t>
+  </si>
+  <si>
+    <t>RI (Resistivity Index)</t>
+  </si>
+  <si>
+    <t>&lt;0.41</t>
+  </si>
+  <si>
+    <t>≥0.41</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="###0.0"/>
+    <numFmt numFmtId="165" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +256,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -296,12 +445,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -338,17 +510,45 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{F323CFD0-6DBA-452E-BBDD-E837B20E0F6B}"/>
   </cellStyles>
@@ -471,7 +671,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -490,9 +690,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -511,7 +709,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -584,35 +782,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$4</c:f>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>≤30</c:v>
+                  <c:v>&lt;5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31-40</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>&gt;40</c:v>
+                <c:pt idx="5">
+                  <c:v>41-50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51-60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61-72</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +1047,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2275,6 +2503,1589 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0EE2-499A-A1A6-2B946A6EBD5F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-07B4-4B59-9A1A-C030BA7F619D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-07B4-4B59-9A1A-C030BA7F619D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10444291338582677"/>
+                  <c:y val="0.18548082531350249"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="8.5222222222222227E-2"/>
+                      <c:h val="0.12493073782443861"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-07B4-4B59-9A1A-C030BA7F619D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10078390201224847"/>
+                  <c:y val="-0.23177712160979885"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="8.7999999999999995E-2"/>
+                      <c:h val="0.11567147856517936"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-07B4-4B59-9A1A-C030BA7F619D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$16:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Color Doppler Ultrasound diagnosis</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benign</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Malignant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$16:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07B4-4B59-9A1A-C030BA7F619D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DD4A-43B8-8F7A-503E1571F773}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-DD4A-43B8-8F7A-503E1571F773}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="10000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="127000" h="127000"/>
+                <a:bevelB w="127000" h="127000"/>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DD4A-43B8-8F7A-503E1571F773}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-DD4A-43B8-8F7A-503E1571F773}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DD4A-43B8-8F7A-503E1571F773}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DD4A-43B8-8F7A-503E1571F773}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$K$25:$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Histopathological diagnosis </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benign</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Malignant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$25:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD4A-43B8-8F7A-503E1571F773}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$A$3:$B$24</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet3!$B$3:$B$24</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Focal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>≤1.5 cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&gt;1.5 cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Homogeneously hypoechoic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mixed echogenic heterogenous</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Well defined</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Poorly defined</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Grade 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grade 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Grade 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Regular (branching linear)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Non-branching linear</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Irregular chaotic / criss-cross</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Increased</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Decreased</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Increased</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Decreased</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>&lt;0.41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>≥0.41</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$3:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1ED-402E-B73D-6156322ADCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Malignant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet3!$A$3:$B$24</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Sheet3!$B$3:$B$24</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet3!$B$3:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Focal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diffuse</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>≤1.5 cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&gt;1.5 cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Homogeneously hypoechoic</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mixed echogenic heterogenous</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Well defined</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Poorly defined</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Grade 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Grade 2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Grade 3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Regular (branching linear)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Non-branching linear</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Irregular chaotic / criss-cross</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Increased</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Decreased</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Normal</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Increased</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Decreased</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>&lt;0.41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>≥0.41</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$3:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1ED-402E-B73D-6156322ADCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="385194168"/>
+        <c:axId val="385201368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="385194168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385201368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385201368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385194168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2432,6 +4243,123 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4480,6 +6408,1568 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="206">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4630,6 +8120,119 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89239455-86E8-2921-3233-499FE836F354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>466725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CF7728A-A07A-2976-B372-E5D9D95CEE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D610F766-44AD-759F-75CC-E3D9F9CCC5F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4898,8 +8501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,38 +8515,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K1" s="13"/>
       <c r="L1" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M1" s="12"/>
     </row>
-    <row r="2" spans="1:13" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>40</v>
+    <row r="2" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" s="14">
         <v>36</v>
       </c>
       <c r="M2" s="12"/>
     </row>
-    <row r="3" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>38</v>
+    <row r="3" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" s="16">
         <v>12</v>
@@ -4951,59 +8554,89 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>22</v>
+      <c r="A4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9">
+        <v>10</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="16">
         <v>12</v>
       </c>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9">
+        <v>24</v>
+      </c>
       <c r="K5" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L5" s="16">
         <v>8</v>
       </c>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>38</v>
+      </c>
       <c r="K6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" s="16">
         <v>6</v>
       </c>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
       <c r="K7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" s="16">
         <v>6</v>
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
       <c r="K8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L8" s="16">
         <v>4</v>
       </c>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9">
+        <v>12</v>
+      </c>
       <c r="K9" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="16">
         <v>4</v>
@@ -5012,7 +8645,7 @@
     </row>
     <row r="10" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="K10" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="16">
         <v>4</v>
@@ -5021,7 +8654,7 @@
     </row>
     <row r="11" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="K11" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L11" s="16">
         <v>4</v>
@@ -5030,7 +8663,7 @@
     </row>
     <row r="12" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="K12" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L12" s="16">
         <v>2</v>
@@ -5039,7 +8672,7 @@
     </row>
     <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="K13" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L13" s="16">
         <v>2</v>
@@ -5047,57 +8680,94 @@
       <c r="M13" s="12"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
+      <c r="K16" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5">
         <v>58</v>
       </c>
+      <c r="K17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="8">
+        <v>22</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="6">
         <v>42</v>
       </c>
+      <c r="K18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="9">
+        <v>78</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:2" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:12" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="11">
         <v>100</v>
@@ -5105,7 +8775,7 @@
     </row>
     <row r="33" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B33" s="11">
         <v>100</v>
@@ -5113,7 +8783,7 @@
     </row>
     <row r="34" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" s="11">
         <v>100</v>
@@ -5121,7 +8791,7 @@
     </row>
     <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="11">
         <v>8</v>
@@ -5137,7 +8807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A81F301-80D9-4FF7-A66F-A8D1C9466016}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
@@ -5146,12 +8816,12 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="14">
         <v>36</v>
@@ -5159,7 +8829,7 @@
     </row>
     <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="16">
         <v>12</v>
@@ -5167,7 +8837,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="16">
         <v>12</v>
@@ -5175,7 +8845,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="16">
         <v>8</v>
@@ -5183,7 +8853,7 @@
     </row>
     <row r="6" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="16">
         <v>6</v>
@@ -5191,7 +8861,7 @@
     </row>
     <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="16">
         <v>6</v>
@@ -5199,7 +8869,7 @@
     </row>
     <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="16">
         <v>4</v>
@@ -5207,7 +8877,7 @@
     </row>
     <row r="9" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="16">
         <v>4</v>
@@ -5215,7 +8885,7 @@
     </row>
     <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="16">
         <v>4</v>
@@ -5223,7 +8893,7 @@
     </row>
     <row r="11" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="16">
         <v>4</v>
@@ -5231,7 +8901,7 @@
     </row>
     <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="16">
         <v>2</v>
@@ -5239,7 +8909,7 @@
     </row>
     <row r="13" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="16">
         <v>2</v>
@@ -5253,4 +8923,329 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7B80BE-4C12-4F77-A3C3-E252A357328C}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="21">
+        <v>2</v>
+      </c>
+      <c r="D4" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="21">
+        <v>12</v>
+      </c>
+      <c r="D6" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="21">
+        <v>2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="21">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="21">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="21">
+        <v>6</v>
+      </c>
+      <c r="D10" s="21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="21">
+        <v>4</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="21">
+        <v>8</v>
+      </c>
+      <c r="D12" s="21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="21">
+        <v>3</v>
+      </c>
+      <c r="D15" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="21">
+        <v>8</v>
+      </c>
+      <c r="D16" s="21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2</v>
+      </c>
+      <c r="D17" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21">
+        <v>8</v>
+      </c>
+      <c r="D18" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="21">
+        <v>8</v>
+      </c>
+      <c r="D21" s="21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2</v>
+      </c>
+      <c r="D22" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21">
+        <v>11</v>
+      </c>
+      <c r="D24" s="21">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>